--- a/data/teacher/Ander. Edson.xlsx
+++ b/data/teacher/Ander. Edson.xlsx
@@ -1005,7 +1005,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-1NA-Tornearia']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-1NA-Tornearia']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-1NA-Tornearia']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[-, -, -, 'MEC-1NA-Tornearia']</t>
+          <t>-</t>
         </is>
       </c>
     </row>
